--- a/Wave 5_React_Tracker_ARJUN.xlsx
+++ b/Wave 5_React_Tracker_ARJUN.xlsx
@@ -51,9 +51,6 @@
     <t>Compose Mail</t>
   </si>
   <si>
-    <t>Git URL:</t>
-  </si>
-  <si>
     <t>23/08/2016</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>Inbox Mails</t>
+  </si>
+  <si>
+    <t>Git URL: https://github.com/arjunAR/reactassignment.git</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -435,13 +435,13 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6"/>
     </row>
@@ -462,10 +462,10 @@
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>6</v>
@@ -485,25 +485,25 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>

--- a/Wave 5_React_Tracker_ARJUN.xlsx
+++ b/Wave 5_React_Tracker_ARJUN.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Git URL: https://github.com/arjunAR/reactassignment.git</t>
+  </si>
+  <si>
+    <t>24/08/2016</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -508,6 +511,14 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>

--- a/Wave 5_React_Tracker_ARJUN.xlsx
+++ b/Wave 5_React_Tracker_ARJUN.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>24/08/2016</t>
+  </si>
+  <si>
+    <t>25/08/2016</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -407,7 +413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -415,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -519,6 +525,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>

--- a/Wave 5_React_Tracker_ARJUN.xlsx
+++ b/Wave 5_React_Tracker_ARJUN.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>in progress</t>
+  </si>
+  <si>
+    <t>26/08/2016</t>
+  </si>
+  <si>
+    <t>27/08/2016</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -536,6 +542,25 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>

--- a/Wave 5_React_Tracker_ARJUN.xlsx
+++ b/Wave 5_React_Tracker_ARJUN.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>27/08/2016</t>
+  </si>
+  <si>
+    <t>28/08/2016</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -561,6 +564,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
